--- a/Day4/Data/WHOdata.xlsx
+++ b/Day4/Data/WHOdata.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="560" windowWidth="21680" windowHeight="20480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bar graph" sheetId="1" r:id="rId1"/>
+    <sheet name="dot plot" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>disease</t>
   </si>
@@ -117,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,7 +207,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>'bar graph'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -289,7 +294,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>'bar graph'!$A$2:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -321,7 +326,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$9</c:f>
+              <c:f>'bar graph'!$N$2:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -362,11 +367,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="25"/>
-        <c:axId val="2082796632"/>
-        <c:axId val="2083260456"/>
+        <c:axId val="2097664648"/>
+        <c:axId val="2097349992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082796632"/>
+        <c:axId val="2097664648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083260456"/>
+        <c:crossAx val="2097349992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -399,7 +404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083260456"/>
+        <c:axId val="2097349992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -422,7 +427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082796632"/>
+        <c:crossAx val="2097664648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -437,6 +442,2544 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Africa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pctDeathsAfrica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.136659764419415"/>
+                  <c:y val="0.443925613779727"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.124556086973272"/>
+                  <c:y val="0.361728876305335"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0887190725290184"/>
+                  <c:y val="0.278606250210108"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0640000756986751"/>
+                  <c:y val="0.101238530002974"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.101459655197041"/>
+                  <c:y val="0.313692245195221"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0872724618358145"/>
+                  <c:y val="0.101238530002974"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0634050751005204"/>
+                  <c:y val="0.0521156221378738"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0521339378032292"/>
+                  <c:y val="0.442420788149858"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100.0"/>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Neonatal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pneumonia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diarrhea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Malaria</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Measles</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Injuries</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HIV/AIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]dropped line plot'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="20"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="-2145523960"/>
+        <c:axId val="2101271128"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="-2145523960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101271128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2101271128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2145523960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Americas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pctDeathsAmericas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.148104683157112"/>
+                  <c:y val="0.737243433517322"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.113111168235574"/>
+                  <c:y val="0.215858306193523"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0887190725290184"/>
+                  <c:y val="0.278606250210108"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0868901384677462"/>
+                  <c:y val="0.427147218600302"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.101459655197041"/>
+                  <c:y val="0.313692245195221"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0872724618358145"/>
+                  <c:y val="0.101238530002974"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0634050751005204"/>
+                  <c:y val="0.101001925427473"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0521339378032292"/>
+                  <c:y val="0.442420788149858"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100.0"/>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Neonatal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pneumonia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diarrhea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Malaria</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Measles</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Injuries</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HIV/AIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]dropped line plot'!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="20"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="-2145502280"/>
+        <c:axId val="-2143214808"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="-2145502280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143214808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2143214808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2145502280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>S.E. Asia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pctDeathsSEAsia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.148104683157112"/>
+                  <c:y val="0.737243433517322"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.118833627604423"/>
+                  <c:y val="0.329926347202587"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0887190725290184"/>
+                  <c:y val="0.307938032183868"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0868901384677462"/>
+                  <c:y val="0.427147218600302"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.101459655197041"/>
+                  <c:y val="0.313692245195221"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0872724618358145"/>
+                  <c:y val="0.101238530002974"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0634050751005204"/>
+                  <c:y val="0.101001925427473"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0521339378032292"/>
+                  <c:y val="0.442420788149858"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100.0"/>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Neonatal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pneumonia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diarrhea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Malaria</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Measles</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Injuries</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HIV/AIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]dropped line plot'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="20"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="-2146729080"/>
+        <c:axId val="-2146717848"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="-2146729080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146717848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2146717848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2146729080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Mideast</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pctDeathsMideast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.148104683157112"/>
+                  <c:y val="0.737243433517322"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.113111168235574"/>
+                  <c:y val="0.215858306193523"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0887190725290184"/>
+                  <c:y val="0.278606250210108"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0868901384677462"/>
+                  <c:y val="0.427147218600302"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.101459655197041"/>
+                  <c:y val="0.313692245195221"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0872724618358145"/>
+                  <c:y val="0.101238530002974"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0634050751005204"/>
+                  <c:y val="0.101001925427473"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0521339378032292"/>
+                  <c:y val="0.442420788149858"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100.0"/>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Neonatal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pneumonia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diarrhea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Malaria</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Measles</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Injuries</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HIV/AIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]dropped line plot'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="20"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="-2143115944"/>
+        <c:axId val="-2143097240"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="-2143115944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143097240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2143097240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2143115944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Asia/Oceania</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pctDeathsAsia_Oceania</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.119492611606544"/>
+                  <c:y val="0.786129736806921"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11024993855115"/>
+                  <c:y val="0.232153740623389"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0887190725290184"/>
+                  <c:y val="0.291642597754002"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0868901384677462"/>
+                  <c:y val="0.427147218600302"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.101459655197041"/>
+                  <c:y val="0.313692245195221"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0872724618358145"/>
+                  <c:y val="0.101238530002974"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0634050751005204"/>
+                  <c:y val="0.127074620515259"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0521339378032292"/>
+                  <c:y val="0.442420788149858"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100.0"/>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Neonatal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pneumonia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diarrhea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Malaria</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Measles</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Injuries</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HIV/AIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]dropped line plot'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="20"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="-2143072328"/>
+        <c:axId val="-2143069336"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="-2143072328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143069336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2143069336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2143072328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Europe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pctDeathsEurope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.148104683157112"/>
+                  <c:y val="0.737243433517322"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.113111168235574"/>
+                  <c:y val="0.215858306193523"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0887190725290184"/>
+                  <c:y val="0.278606250210108"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0868901384677462"/>
+                  <c:y val="0.427147218600302"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.101459655197041"/>
+                  <c:y val="0.313692245195221"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0872724618358145"/>
+                  <c:y val="0.101238530002974"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0634050751005204"/>
+                  <c:y val="0.101001925427473"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0521339378032292"/>
+                  <c:y val="0.442420788149858"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100.0"/>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[1]dropped line plot'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Neonatal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pneumonia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diarrhea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Malaria</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Measles</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Injuries</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HIV/AIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]dropped line plot'!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="20"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="-2145412744"/>
+        <c:axId val="-2145586424"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="-2145412744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145586424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2145586424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2145412744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -478,6 +3021,421 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>110608</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>86797</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>115372</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>115372</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>86797</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>781051</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>96322</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="dropped line plot"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>pctDeathsAfrica</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>pctDeathsAmericas</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>pctDeathsAsia_Oceania</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>pctDeathsEurope</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>pctDeathsMideast</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>pctDeathsSEAsia</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Neonatal</v>
+          </cell>
+          <cell r="C2">
+            <v>0.26</v>
+          </cell>
+          <cell r="E2">
+            <v>0.44</v>
+          </cell>
+          <cell r="G2">
+            <v>0.47</v>
+          </cell>
+          <cell r="I2">
+            <v>0.44</v>
+          </cell>
+          <cell r="K2">
+            <v>0.43</v>
+          </cell>
+          <cell r="M2">
+            <v>0.44</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Pneumonia</v>
+          </cell>
+          <cell r="C3">
+            <v>0.21</v>
+          </cell>
+          <cell r="E3">
+            <v>0.12</v>
+          </cell>
+          <cell r="G3">
+            <v>0.13</v>
+          </cell>
+          <cell r="I3">
+            <v>0.12</v>
+          </cell>
+          <cell r="K3">
+            <v>0.21</v>
+          </cell>
+          <cell r="M3">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Diarrhea</v>
+          </cell>
+          <cell r="C4">
+            <v>0.16</v>
+          </cell>
+          <cell r="E4">
+            <v>0.12</v>
+          </cell>
+          <cell r="G4">
+            <v>0.17</v>
+          </cell>
+          <cell r="I4">
+            <v>0.13</v>
+          </cell>
+          <cell r="K4">
+            <v>0.17</v>
+          </cell>
+          <cell r="M4">
+            <v>0.18</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Other</v>
+          </cell>
+          <cell r="C5">
+            <v>0.05</v>
+          </cell>
+          <cell r="E5">
+            <v>0.25</v>
+          </cell>
+          <cell r="G5">
+            <v>0.13</v>
+          </cell>
+          <cell r="I5">
+            <v>0.23</v>
+          </cell>
+          <cell r="K5">
+            <v>0.09</v>
+          </cell>
+          <cell r="M5">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Malaria</v>
+          </cell>
+          <cell r="C6">
+            <v>0.18</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="K6">
+            <v>0.03</v>
+          </cell>
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Measles</v>
+          </cell>
+          <cell r="C7">
+            <v>0.05</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>0.01</v>
+          </cell>
+          <cell r="I7">
+            <v>0.01</v>
+          </cell>
+          <cell r="K7">
+            <v>0.04</v>
+          </cell>
+          <cell r="M7">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Injuries</v>
+          </cell>
+          <cell r="C8">
+            <v>0.02</v>
+          </cell>
+          <cell r="E8">
+            <v>0.05</v>
+          </cell>
+          <cell r="G8">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="I8">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="K8">
+            <v>0.03</v>
+          </cell>
+          <cell r="M8">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>HIV/AIDS</v>
+          </cell>
+          <cell r="C9">
+            <v>0.06</v>
+          </cell>
+          <cell r="E9">
+            <v>0.01</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="M9">
+            <v>0.01</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1195,4 +4153,441 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="42">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1.1429599523544312</v>
+      </c>
+      <c r="C2">
+        <v>0.26</v>
+      </c>
+      <c r="D2">
+        <v>0.19315999746322632</v>
+      </c>
+      <c r="E2">
+        <v>0.44</v>
+      </c>
+      <c r="F2">
+        <v>0.47940000891685486</v>
+      </c>
+      <c r="G2">
+        <v>0.47</v>
+      </c>
+      <c r="H2">
+        <v>0.1157199963927269</v>
+      </c>
+      <c r="I2">
+        <v>0.44</v>
+      </c>
+      <c r="J2">
+        <v>0.60587000846862793</v>
+      </c>
+      <c r="K2">
+        <v>0.43</v>
+      </c>
+      <c r="L2">
+        <v>1.3508000373840332</v>
+      </c>
+      <c r="M2">
+        <v>0.44</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N9" si="0">B2+D2+F2+H2+J2+L2</f>
+        <v>3.8879100009799004</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.92316001653671265</v>
+      </c>
+      <c r="C3">
+        <v>0.21</v>
+      </c>
+      <c r="D3">
+        <v>5.268000066280365E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.12</v>
+      </c>
+      <c r="F3">
+        <v>0.13259999454021454</v>
+      </c>
+      <c r="G3">
+        <v>0.13</v>
+      </c>
+      <c r="H3">
+        <v>3.1560000032186508E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.12</v>
+      </c>
+      <c r="J3">
+        <v>0.29589000344276428</v>
+      </c>
+      <c r="K3">
+        <v>0.21</v>
+      </c>
+      <c r="L3">
+        <v>0.58329999446868896</v>
+      </c>
+      <c r="M3">
+        <v>0.19</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>2.0191900096833706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.70336002111434937</v>
+      </c>
+      <c r="C4">
+        <v>0.16</v>
+      </c>
+      <c r="D4">
+        <v>5.268000066280365E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.12</v>
+      </c>
+      <c r="F4">
+        <v>0.17339999973773956</v>
+      </c>
+      <c r="G4">
+        <v>0.17</v>
+      </c>
+      <c r="H4">
+        <v>3.4189999103546143E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.13</v>
+      </c>
+      <c r="J4">
+        <v>0.23952999711036682</v>
+      </c>
+      <c r="K4">
+        <v>0.17</v>
+      </c>
+      <c r="L4">
+        <v>0.55260002613067627</v>
+      </c>
+      <c r="M4">
+        <v>0.18</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1.7557600438594818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.21979999542236328</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>0.10975000262260437</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="F5">
+        <v>0.13259999454021454</v>
+      </c>
+      <c r="G5">
+        <v>0.13</v>
+      </c>
+      <c r="H5">
+        <v>6.0490000993013382E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.23</v>
+      </c>
+      <c r="J5">
+        <v>0.12680999934673309</v>
+      </c>
+      <c r="K5">
+        <v>0.09</v>
+      </c>
+      <c r="L5">
+        <v>0.36840000748634338</v>
+      </c>
+      <c r="M5">
+        <v>0.12</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1.017850000411272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.79127997159957886</v>
+      </c>
+      <c r="C6">
+        <v>0.18</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4.2270001024007797E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.03</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.83354997262358665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.21979999542236328</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1.0200000368058681E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.01</v>
+      </c>
+      <c r="H7">
+        <v>2.630000002682209E-3</v>
+      </c>
+      <c r="I7">
+        <v>0.01</v>
+      </c>
+      <c r="J7">
+        <v>5.6359998881816864E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.04</v>
+      </c>
+      <c r="L7">
+        <v>9.2100001871585846E-2</v>
+      </c>
+      <c r="M7">
+        <v>0.03</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.38108999654650688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>8.7920002639293671E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.02</v>
+      </c>
+      <c r="D8">
+        <v>2.1950000897049904E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.05</v>
+      </c>
+      <c r="F8">
+        <v>7.1400001645088196E-2</v>
+      </c>
+      <c r="G8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.8409999087452888E-2</v>
+      </c>
+      <c r="I8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J8">
+        <v>4.2270001024007797E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.03</v>
+      </c>
+      <c r="L8">
+        <v>6.1400000005960464E-2</v>
+      </c>
+      <c r="M8">
+        <v>0.02</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.30335000529885292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0.26376000046730042</v>
+      </c>
+      <c r="C9">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>4.3899999000132084E-3</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>3.0700000002980232E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.01</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.29885000037029386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>